--- a/nodes_source_analyses/energy/energy_flexibility_p2g_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_flexibility_p2g_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -30,8 +35,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -235,9 +243,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -320,6 +325,10 @@
   <si>
     <t>Electrical input capacity</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -329,9 +338,9 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,11 +451,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1088,19 +1092,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1130,7 +1134,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1186,10 +1190,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1205,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,33 +1280,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1310,7 +1287,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1335,6 +1312,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="266">
@@ -1607,81 +1611,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2120,51 +2059,51 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="48.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="12"/>
+    <col min="1" max="1" width="3.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2173,17 +2112,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="47" t="s">
         <v>50</v>
@@ -2191,13 +2130,13 @@
       <c r="C9" s="48"/>
       <c r="D9" s="65"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="49"/>
       <c r="C10" s="50"/>
       <c r="D10" s="66"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="49" t="s">
         <v>51</v>
@@ -2207,7 +2146,7 @@
       </c>
       <c r="D11" s="66"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="49"/>
       <c r="C12" s="11" t="s">
@@ -2215,7 +2154,7 @@
       </c>
       <c r="D12" s="66"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="49"/>
       <c r="C13" s="52" t="s">
@@ -2223,7 +2162,7 @@
       </c>
       <c r="D13" s="66"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="49"/>
       <c r="C14" s="50" t="s">
@@ -2231,13 +2170,13 @@
       </c>
       <c r="D14" s="66"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="49"/>
       <c r="C15" s="50"/>
       <c r="D15" s="66"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="49" t="s">
         <v>56</v>
@@ -2247,7 +2186,7 @@
       </c>
       <c r="D16" s="66"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="49"/>
       <c r="C17" s="54" t="s">
@@ -2255,7 +2194,7 @@
       </c>
       <c r="D17" s="66"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="49"/>
       <c r="C18" s="55" t="s">
@@ -2263,7 +2202,7 @@
       </c>
       <c r="D18" s="66"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="49"/>
       <c r="C19" s="56" t="s">
@@ -2271,7 +2210,7 @@
       </c>
       <c r="D19" s="66"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="57"/>
       <c r="C20" s="58" t="s">
@@ -2279,7 +2218,7 @@
       </c>
       <c r="D20" s="66"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="57"/>
       <c r="C21" s="59" t="s">
@@ -2287,7 +2226,7 @@
       </c>
       <c r="D21" s="66"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="57"/>
       <c r="C22" s="60" t="s">
@@ -2295,14 +2234,14 @@
       </c>
       <c r="D22" s="66"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="57"/>
       <c r="C23" s="61" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="66"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="67"/>
       <c r="C24" s="68"/>
       <c r="D24" s="69"/>
@@ -2310,74 +2249,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="77" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="77" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="77" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="77" customWidth="1"/>
     <col min="3" max="3" width="46" style="77" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="77" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="77" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="77" customWidth="1"/>
     <col min="7" max="7" width="45" style="77" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="77" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="77" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="77" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="77"/>
+    <col min="8" max="8" width="5.140625" style="77" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="77" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="77" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" customHeight="1">
+    <row r="1" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="78"/>
       <c r="E1" s="78"/>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
     </row>
-    <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
+    <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
     </row>
-    <row r="4" spans="2:11" ht="16" customHeight="1">
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="123"/>
+    <row r="4" spans="2:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="5" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="78"/>
     </row>
-    <row r="6" spans="2:11" ht="16" customHeight="1">
+    <row r="6" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="79"/>
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
@@ -2388,7 +2324,7 @@
       <c r="I6" s="80"/>
       <c r="J6" s="81"/>
     </row>
-    <row r="7" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="82"/>
       <c r="C7" s="83" t="s">
         <v>21</v>
@@ -2409,7 +2345,7 @@
       </c>
       <c r="J7" s="85"/>
     </row>
-    <row r="8" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="87"/>
       <c r="C8" s="88"/>
       <c r="D8" s="89"/>
@@ -2420,10 +2356,10 @@
       <c r="I8" s="88"/>
       <c r="J8" s="90"/>
     </row>
-    <row r="9" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="9" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="87"/>
       <c r="C9" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="89"/>
       <c r="E9" s="88"/>
@@ -2433,10 +2369,10 @@
       <c r="I9" s="88"/>
       <c r="J9" s="90"/>
     </row>
-    <row r="10" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="10" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="87"/>
-      <c r="C10" s="124" t="s">
-        <v>81</v>
+      <c r="C10" s="115" t="s">
+        <v>80</v>
       </c>
       <c r="D10" s="96" t="s">
         <v>43</v>
@@ -2447,15 +2383,15 @@
       </c>
       <c r="F10" s="93"/>
       <c r="G10" s="94"/>
-      <c r="I10" s="125" t="s">
-        <v>87</v>
+      <c r="I10" s="116" t="s">
+        <v>86</v>
       </c>
       <c r="J10" s="90"/>
     </row>
-    <row r="11" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="11" spans="2:11" s="86" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
-      <c r="C11" s="124" t="s">
-        <v>84</v>
+      <c r="C11" s="115" t="s">
+        <v>83</v>
       </c>
       <c r="D11" s="96" t="s">
         <v>4</v>
@@ -2465,12 +2401,12 @@
       </c>
       <c r="F11" s="93"/>
       <c r="G11" s="94"/>
-      <c r="I11" s="125" t="s">
-        <v>83</v>
+      <c r="I11" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J11" s="90"/>
     </row>
-    <row r="12" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="12" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="95"/>
       <c r="C12" s="93" t="s">
         <v>23</v>
@@ -2483,13 +2419,13 @@
       </c>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
-      <c r="I12" s="125" t="s">
-        <v>83</v>
+      <c r="I12" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="97"/>
       <c r="K12" s="78"/>
     </row>
-    <row r="13" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="13" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="95"/>
       <c r="C13" s="93" t="s">
         <v>25</v>
@@ -2502,32 +2438,32 @@
       </c>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
-      <c r="I13" s="125" t="s">
-        <v>83</v>
+      <c r="I13" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J13" s="97"/>
       <c r="K13" s="78"/>
     </row>
-    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="95"/>
       <c r="C14" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="126">
+      <c r="E14" s="117">
         <v>7533.5999999999995</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
-      <c r="I14" s="125" t="s">
-        <v>83</v>
+      <c r="I14" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J14" s="97"/>
       <c r="K14" s="78"/>
     </row>
-    <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="95"/>
       <c r="C15" s="93" t="s">
         <v>7</v>
@@ -2540,13 +2476,13 @@
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
-      <c r="I15" s="125" t="s">
-        <v>82</v>
+      <c r="I15" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J15" s="97"/>
       <c r="K15" s="78"/>
     </row>
-    <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="95"/>
       <c r="C16" s="93" t="s">
         <v>28</v>
@@ -2559,13 +2495,13 @@
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
-      <c r="I16" s="125" t="s">
-        <v>82</v>
+      <c r="I16" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J16" s="97"/>
       <c r="K16" s="78"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="95"/>
       <c r="C17" s="93" t="s">
         <v>29</v>
@@ -2578,13 +2514,13 @@
       </c>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
-      <c r="I17" s="125" t="s">
-        <v>82</v>
+      <c r="I17" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J17" s="97"/>
       <c r="K17" s="78"/>
     </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="95"/>
       <c r="C18" s="93" t="s">
         <v>30</v>
@@ -2597,12 +2533,12 @@
       </c>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
-      <c r="I18" s="125" t="s">
-        <v>82</v>
+      <c r="I18" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J18" s="97"/>
     </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="95"/>
       <c r="C19" s="101" t="s">
         <v>44</v>
@@ -2615,12 +2551,12 @@
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
-      <c r="I19" s="125" t="s">
-        <v>82</v>
+      <c r="I19" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J19" s="97"/>
     </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="95"/>
       <c r="C20" s="101" t="s">
         <v>45</v>
@@ -2633,12 +2569,12 @@
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
-      <c r="I20" s="125" t="s">
-        <v>82</v>
+      <c r="I20" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J20" s="97"/>
     </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="95"/>
       <c r="C21" s="101" t="s">
         <v>46</v>
@@ -2651,12 +2587,12 @@
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
-      <c r="I21" s="125" t="s">
-        <v>82</v>
+      <c r="I21" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J21" s="97"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="95"/>
       <c r="C22" s="101" t="s">
         <v>47</v>
@@ -2669,12 +2605,12 @@
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
-      <c r="I22" s="125" t="s">
-        <v>82</v>
+      <c r="I22" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J22" s="97"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="95"/>
       <c r="C23" s="101" t="s">
         <v>48</v>
@@ -2687,12 +2623,12 @@
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
-      <c r="I23" s="125" t="s">
-        <v>82</v>
+      <c r="I23" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J23" s="97"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1">
+    <row r="24" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="95"/>
       <c r="C24" s="102"/>
       <c r="D24" s="103"/>
@@ -2702,10 +2638,10 @@
       <c r="I24" s="78"/>
       <c r="J24" s="97"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="95"/>
       <c r="C25" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="103"/>
       <c r="E25" s="104"/>
@@ -2714,7 +2650,7 @@
       <c r="I25" s="78"/>
       <c r="J25" s="97"/>
     </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="95"/>
       <c r="C26" s="93" t="s">
         <v>31</v>
@@ -2727,12 +2663,12 @@
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="91"/>
-      <c r="I26" s="125" t="s">
-        <v>83</v>
+      <c r="I26" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J26" s="97"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="95"/>
       <c r="C27" s="93" t="s">
         <v>32</v>
@@ -2745,12 +2681,12 @@
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="91"/>
-      <c r="I27" s="125" t="s">
-        <v>83</v>
+      <c r="I27" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="95"/>
       <c r="C28" s="93" t="s">
         <v>9</v>
@@ -2763,12 +2699,12 @@
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="91"/>
-      <c r="I28" s="125" t="s">
-        <v>83</v>
+      <c r="I28" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J28" s="97"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="95"/>
       <c r="C29" s="93" t="s">
         <v>33</v>
@@ -2781,12 +2717,12 @@
       </c>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
-      <c r="I29" s="125" t="s">
-        <v>83</v>
+      <c r="I29" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J29" s="97"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="95"/>
       <c r="C30" s="93" t="s">
         <v>34</v>
@@ -2799,12 +2735,12 @@
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="91"/>
-      <c r="I30" s="125" t="s">
-        <v>83</v>
+      <c r="I30" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J30" s="97"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="95"/>
       <c r="C31" s="93" t="s">
         <v>35</v>
@@ -2817,12 +2753,12 @@
       </c>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
-      <c r="I31" s="125" t="s">
-        <v>83</v>
+      <c r="I31" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J31" s="97"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="95"/>
       <c r="C32" s="93" t="s">
         <v>36</v>
@@ -2835,12 +2771,12 @@
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
-      <c r="I32" s="125" t="s">
-        <v>83</v>
+      <c r="I32" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="95"/>
       <c r="C33" s="93" t="s">
         <v>39</v>
@@ -2853,12 +2789,12 @@
       </c>
       <c r="F33" s="93"/>
       <c r="G33" s="93"/>
-      <c r="I33" s="125" t="s">
-        <v>83</v>
+      <c r="I33" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J33" s="97"/>
     </row>
-    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="95"/>
       <c r="C34" s="93" t="s">
         <v>27</v>
@@ -2871,12 +2807,12 @@
       </c>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
-      <c r="I34" s="125" t="s">
-        <v>83</v>
+      <c r="I34" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J34" s="97"/>
     </row>
-    <row r="35" spans="2:10" ht="16" customHeight="1">
+    <row r="35" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="95"/>
       <c r="C35" s="93"/>
       <c r="D35" s="96"/>
@@ -2886,7 +2822,7 @@
       <c r="I35" s="78"/>
       <c r="J35" s="97"/>
     </row>
-    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="95"/>
       <c r="C36" s="88" t="s">
         <v>6</v>
@@ -2898,7 +2834,7 @@
       <c r="I36" s="78"/>
       <c r="J36" s="97"/>
     </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="95"/>
       <c r="C37" s="93" t="s">
         <v>26</v>
@@ -2906,17 +2842,17 @@
       <c r="D37" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="127">
+      <c r="E37" s="118">
         <v>2.1306000000000002E-5</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
-      <c r="I37" s="125" t="s">
-        <v>83</v>
+      <c r="I37" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J37" s="97"/>
     </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="95"/>
       <c r="C38" s="93" t="s">
         <v>37</v>
@@ -2929,12 +2865,12 @@
       </c>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
-      <c r="I38" s="125" t="s">
-        <v>83</v>
+      <c r="I38" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J38" s="97"/>
     </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="95"/>
       <c r="C39" s="93" t="s">
         <v>38</v>
@@ -2947,12 +2883,12 @@
       </c>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
-      <c r="I39" s="125" t="s">
-        <v>83</v>
+      <c r="I39" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J39" s="97"/>
     </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="95"/>
       <c r="C40" s="93" t="s">
         <v>24</v>
@@ -2965,15 +2901,15 @@
       </c>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
-      <c r="I40" s="125" t="s">
-        <v>83</v>
+      <c r="I40" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="J40" s="97"/>
     </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="95"/>
       <c r="C41" s="110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="96"/>
       <c r="E41" s="111">
@@ -2981,15 +2917,15 @@
       </c>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
-      <c r="I41" s="125" t="s">
-        <v>82</v>
+      <c r="I41" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J41" s="97"/>
     </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="95"/>
       <c r="C42" s="110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="96"/>
       <c r="E42" s="106">
@@ -2997,15 +2933,15 @@
       </c>
       <c r="F42" s="93"/>
       <c r="G42" s="93"/>
-      <c r="I42" s="125" t="s">
-        <v>82</v>
+      <c r="I42" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J42" s="97"/>
     </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="95"/>
       <c r="C43" s="110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="96"/>
       <c r="E43" s="106">
@@ -3013,15 +2949,15 @@
       </c>
       <c r="F43" s="93"/>
       <c r="G43" s="93"/>
-      <c r="I43" s="125" t="s">
-        <v>82</v>
+      <c r="I43" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J43" s="97"/>
     </row>
-    <row r="44" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="44" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="95"/>
       <c r="C44" s="110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="96"/>
       <c r="E44" s="106">
@@ -3029,15 +2965,15 @@
       </c>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
-      <c r="I44" s="125" t="s">
-        <v>82</v>
+      <c r="I44" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J44" s="97"/>
     </row>
-    <row r="45" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="45" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="95"/>
       <c r="C45" s="110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="96"/>
       <c r="E45" s="106">
@@ -3046,12 +2982,12 @@
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
       <c r="H45" s="78"/>
-      <c r="I45" s="125" t="s">
-        <v>82</v>
+      <c r="I45" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="J45" s="97"/>
     </row>
-    <row r="46" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="46" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="112"/>
       <c r="C46" s="113"/>
       <c r="D46" s="113"/>
@@ -3068,43 +3004,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3119,23 +3018,22 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="36" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="36" customWidth="1"/>
     <col min="6" max="6" width="4" style="36" customWidth="1"/>
     <col min="7" max="7" width="16" style="36" customWidth="1"/>
     <col min="8" max="8" width="3" style="37" customWidth="1"/>
     <col min="9" max="9" width="60" style="36" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="36"/>
+    <col min="10" max="10" width="2.140625" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -3146,10 +3044,10 @@
       <c r="I2" s="39"/>
       <c r="J2" s="70"/>
     </row>
-    <row r="3" spans="2:10" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="2:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>11</v>
@@ -3161,11 +3059,11 @@
       <c r="G3" s="63"/>
       <c r="H3" s="34"/>
       <c r="I3" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="71"/>
     </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1">
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="41"/>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -3176,10 +3074,10 @@
       <c r="I4" s="9"/>
       <c r="J4" s="72"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41"/>
       <c r="C5" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="10"/>
@@ -3189,12 +3087,12 @@
       <c r="I5" s="35"/>
       <c r="J5" s="72"/>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1">
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
-      <c r="C6" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="129" t="s">
+      <c r="C6" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="120" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="64">
@@ -3203,17 +3101,17 @@
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="43"/>
-      <c r="I6" s="133" t="s">
-        <v>87</v>
+      <c r="I6" s="124" t="s">
+        <v>86</v>
       </c>
       <c r="J6" s="72"/>
     </row>
-    <row r="7" spans="2:10" ht="16" thickBot="1">
+    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
-      <c r="C7" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="133" t="s">
+      <c r="C7" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="124" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="46">
@@ -3222,36 +3120,36 @@
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="72"/>
+    </row>
+    <row r="8" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="125">
+        <v>0.49346643518518518</v>
+      </c>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="72"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="41"/>
+      <c r="C9" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="72"/>
-    </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1">
-      <c r="B8" s="41"/>
-      <c r="C8" s="128" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="134">
-        <v>0.49346643518518518</v>
-      </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="72"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="41"/>
-      <c r="C9" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="122" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="45">
@@ -3264,7 +3162,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="72"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1">
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
@@ -3278,11 +3176,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3297,22 +3190,22 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="21" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="21" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="21" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="22" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="21" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="22" customWidth="1"/>
     <col min="11" max="11" width="66" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="21"/>
+    <col min="12" max="16384" width="33.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="23"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3324,7 +3217,7 @@
       <c r="J2" s="25"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="26"/>
       <c r="C3" s="27" t="s">
         <v>18</v>
@@ -3338,7 +3231,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="26"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -3350,7 +3243,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="31"/>
       <c r="C5" s="32" t="s">
         <v>19</v>
@@ -3366,13 +3259,13 @@
         <v>20</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>12</v>
@@ -3381,10 +3274,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>